--- a/procesador/Listado de proyectos - 60 años dpto antropología0802.xlsx
+++ b/procesador/Listado de proyectos - 60 años dpto antropología0802.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_ulloag_uniandes_edu_co/Documents/60 años departamento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\juan\enflujo\enflujo-haciendocaminos\procesador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0104C30-182E-4D0E-8704-405C6561AB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2062E95-FCBB-41FE-96E3-1ECB7E59FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="2640" windowWidth="27090" windowHeight="12870" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3067" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2966,7 +2966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3291,15 +3291,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3312,9 +3303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3332,12 +3320,34 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3464,26 +3474,6 @@
       </fill>
       <alignment horizontal="general" wrapText="1"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3500,7 +3490,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3511,7 +3501,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Listado de proyectos - 60 años dpto antropología .xlsx]Sugerencia2!Tabla dinámica1</c:name>
+    <c:name>[Listado de proyectos - 60 años dpto antropología0802.xlsx]Sugerencia2!Tabla dinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6574,7 +6564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4570351-E376-4474-B0C8-4F00FB638DE4}" name="Tabla dinámica1" cacheId="3067" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4570351-E376-4474-B0C8-4F00FB638DE4}" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -6766,43 +6756,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26C4E3B5-770F-491C-9167-A56185FED972}" name="Proyectos" displayName="Proyectos" ref="A2:V121" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26C4E3B5-770F-491C-9167-A56185FED972}" name="Proyectos" displayName="Proyectos" ref="A2:V121" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A2:V121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:P106">
     <sortCondition ref="K2:K106"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="21" xr3:uid="{CAA2836F-1638-400E-B400-4E3A3DDCB419}" name="id" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{6E7788C9-8F68-4968-9F59-B56B2CA39F2D}" name="nombre" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{5ADC7759-347B-4F95-890A-B122FB954E74}" name="categoria" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3F874C7A-80DF-49C7-B115-755BE5A82D6F}" name="año" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{F9F13CFC-F0D2-4CC0-A0ED-8A38B6F64E03}" name="decada" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E704C2FC-B0B7-4D45-BE10-F2EDB29F12BE}" name="actor_lider" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{BBC7B721-1AEB-4B8E-B407-848744B9F1A3}" name="rol" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{B655FB34-004F-43ED-9874-AFC368409FFB}" name="otros_participantes" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{1D8811C5-1004-4732-A0C9-43DF89CAF1BA}" name="rama" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{FC95FE3C-AC15-4490-9066-0F28ACDEB56D}" name="temas" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{F2C70380-41CD-4056-86C8-F1ECAF80F885}" name="objeto_analisis" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{89967392-4C34-4970-B034-CAB2197C1664}" name="pais" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{60FE8421-9D9E-4314-8F32-AEF8027CDEA6}" name="region" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{A5816BDB-4998-4BA6-ACDE-051ECC0E7A78}" name="departamento" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{08AD79BB-F920-4BD0-894A-DBB1A96BE1B6}" name="municipio" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{6A5792F8-7D53-45F6-888F-D5DE6BA55EC3}" name="Estatus de recoleccion de información" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{60D7B1C5-E222-49EF-99A2-8D10EA5F1E39}" name="Texto" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{7DDB1FF2-D389-4C28-93A4-D8A0E706781D}" name="enlace_url" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{B5CBBF66-5628-4F9E-839D-EF67E8D7FD21}" name="Portada" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{8B5D8746-5062-4619-9655-D96B89488966}" name="fotos" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{DB177C26-E16A-49FB-9583-189FD2D0659E}" name="videos" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{5DAB372F-DC3D-43B1-809F-97F35BCF9988}" name="documentos" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{CAA2836F-1638-400E-B400-4E3A3DDCB419}" name="id" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{6E7788C9-8F68-4968-9F59-B56B2CA39F2D}" name="nombre" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{5ADC7759-347B-4F95-890A-B122FB954E74}" name="categoria" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{3F874C7A-80DF-49C7-B115-755BE5A82D6F}" name="año" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{F9F13CFC-F0D2-4CC0-A0ED-8A38B6F64E03}" name="decada" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{E704C2FC-B0B7-4D45-BE10-F2EDB29F12BE}" name="actor_lider" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{BBC7B721-1AEB-4B8E-B407-848744B9F1A3}" name="rol" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{B655FB34-004F-43ED-9874-AFC368409FFB}" name="otros_participantes" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{1D8811C5-1004-4732-A0C9-43DF89CAF1BA}" name="rama" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{FC95FE3C-AC15-4490-9066-0F28ACDEB56D}" name="temas" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{F2C70380-41CD-4056-86C8-F1ECAF80F885}" name="objeto_analisis" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{89967392-4C34-4970-B034-CAB2197C1664}" name="pais" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{60FE8421-9D9E-4314-8F32-AEF8027CDEA6}" name="region" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{A5816BDB-4998-4BA6-ACDE-051ECC0E7A78}" name="departamento" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{08AD79BB-F920-4BD0-894A-DBB1A96BE1B6}" name="municipio" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{6A5792F8-7D53-45F6-888F-D5DE6BA55EC3}" name="Estatus de recoleccion de información" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{60D7B1C5-E222-49EF-99A2-8D10EA5F1E39}" name="Texto" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{7DDB1FF2-D389-4C28-93A4-D8A0E706781D}" name="enlace_url" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{B5CBBF66-5628-4F9E-839D-EF67E8D7FD21}" name="Portada" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{8B5D8746-5062-4619-9655-D96B89488966}" name="fotos" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{DB177C26-E16A-49FB-9583-189FD2D0659E}" name="videos" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{5DAB372F-DC3D-43B1-809F-97F35BCF9988}" name="documentos" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6840,7 +6830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6946,7 +6936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7088,7 +7078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7106,12 +7096,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G43" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
@@ -7127,25 +7117,25 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-    </row>
-    <row r="2" spans="1:22" ht="30.75">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
@@ -7213,11 +7203,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="60.75">
+    <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -7278,11 +7268,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -7346,11 +7336,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33" customHeight="1">
+    <row r="5" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="62" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -7414,11 +7404,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" customHeight="1">
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7482,7 +7472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="43.5" customHeight="1">
+    <row r="7" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <v>5</v>
       </c>
@@ -7550,7 +7540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="45.75">
+    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>6</v>
       </c>
@@ -7600,7 +7590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="45.75">
+    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>7</v>
       </c>
@@ -7650,7 +7640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30.75">
+    <row r="10" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>8</v>
       </c>
@@ -7700,7 +7690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="51.75" customHeight="1">
+    <row r="11" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>9</v>
       </c>
@@ -7768,7 +7758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="30.75">
+    <row r="12" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>10</v>
       </c>
@@ -7818,7 +7808,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="45" customHeight="1">
+    <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>11</v>
       </c>
@@ -7868,11 +7858,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="41.25" customHeight="1">
+    <row r="14" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
         <v>12</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="62" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -7936,7 +7926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="47.25" customHeight="1">
+    <row r="15" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <v>13</v>
       </c>
@@ -8004,7 +7994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1">
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <v>14</v>
       </c>
@@ -8072,11 +8062,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="24" customFormat="1" ht="43.5" customHeight="1">
+    <row r="17" spans="1:22" s="24" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>15</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -8094,7 +8084,7 @@
       <c r="G17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="63" t="s">
         <v>115</v>
       </c>
       <c r="I17" s="24" t="s">
@@ -8140,11 +8130,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="45.75">
+    <row r="18" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>16</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="62" t="s">
         <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -8190,7 +8180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="41.25" customHeight="1">
+    <row r="19" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>17</v>
       </c>
@@ -8258,7 +8248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="30.75">
+    <row r="20" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <v>18</v>
       </c>
@@ -8308,7 +8298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="30.75">
+    <row r="21" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <v>19</v>
       </c>
@@ -8358,7 +8348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="30.75">
+    <row r="22" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="53">
         <v>20</v>
       </c>
@@ -8408,7 +8398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="60.75">
+    <row r="23" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
         <v>21</v>
       </c>
@@ -8458,7 +8448,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="60.75">
+    <row r="24" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>22</v>
       </c>
@@ -8508,7 +8498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="30.75">
+    <row r="25" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
         <v>23</v>
       </c>
@@ -8558,11 +8548,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="30.75">
+    <row r="26" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="53">
         <v>24</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="62" t="s">
         <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -8608,7 +8598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="60.75">
+    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="53">
         <v>25</v>
       </c>
@@ -8658,7 +8648,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="45.75">
+    <row r="28" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="53">
         <v>26</v>
       </c>
@@ -8708,11 +8698,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="34.5" customHeight="1">
+    <row r="29" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53">
         <v>27</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="62" t="s">
         <v>179</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -8721,13 +8711,13 @@
       <c r="E29" s="2">
         <v>2000</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="62" t="s">
         <v>180</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="62" t="s">
         <v>182</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -8773,11 +8763,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="33.75" customHeight="1">
+    <row r="30" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53">
         <v>28</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="62" t="s">
         <v>187</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -8789,13 +8779,13 @@
       <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="62" t="s">
         <v>188</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="62" t="s">
         <v>189</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -8841,11 +8831,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54.75" customHeight="1">
+    <row r="31" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
         <v>29</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="62" t="s">
         <v>200</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -8854,13 +8844,13 @@
       <c r="E31" s="2">
         <v>2010</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="62" t="s">
         <v>188</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="65" t="s">
+      <c r="H31" s="62" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -8906,11 +8896,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="37.5" customHeight="1">
+    <row r="32" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>30</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="62" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -8974,11 +8964,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="51" customHeight="1">
+    <row r="33" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53">
         <v>31</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="62" t="s">
         <v>211</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -8996,7 +8986,7 @@
       <c r="G33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="62" t="s">
         <v>182</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -9042,11 +9032,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="34.5" customHeight="1">
+    <row r="34" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53">
         <v>32</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -9110,7 +9100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="54.75" customHeight="1">
+    <row r="35" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53">
         <v>33</v>
       </c>
@@ -9178,7 +9168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="47.25" customHeight="1">
+    <row r="36" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53">
         <v>34</v>
       </c>
@@ -9246,7 +9236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="45" customHeight="1">
+    <row r="37" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53">
         <v>35</v>
       </c>
@@ -9314,11 +9304,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="47.25" customHeight="1">
+    <row r="38" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53">
         <v>36</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="62" t="s">
         <v>245</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -9382,7 +9372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="37.5" customHeight="1">
+    <row r="39" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53">
         <v>37</v>
       </c>
@@ -9450,11 +9440,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="50.25" customHeight="1">
+    <row r="40" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53">
         <v>38</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="64" t="s">
         <v>261</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -9463,13 +9453,13 @@
       <c r="E40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="62" t="s">
         <v>262</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="65"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="2" t="s">
         <v>183</v>
       </c>
@@ -9513,7 +9503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="32.25" customHeight="1">
+    <row r="41" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53">
         <v>39</v>
       </c>
@@ -9563,7 +9553,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="46.5" customHeight="1">
+    <row r="42" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53">
         <v>40</v>
       </c>
@@ -9631,7 +9621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="32" customFormat="1" ht="45.75" customHeight="1">
+    <row r="43" spans="1:22" s="32" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53">
         <v>41</v>
       </c>
@@ -9699,7 +9689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="28.5" customHeight="1">
+    <row r="44" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53">
         <v>42</v>
       </c>
@@ -9749,7 +9739,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="45.75">
+    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
         <v>43</v>
       </c>
@@ -9799,7 +9789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="121.5">
+    <row r="46" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="53">
         <v>44</v>
       </c>
@@ -9849,7 +9839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="106.5">
+    <row r="47" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="53">
         <v>45</v>
       </c>
@@ -9899,7 +9889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="45.75">
+    <row r="48" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="53">
         <v>46</v>
       </c>
@@ -9949,7 +9939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="106.5">
+    <row r="49" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="53">
         <v>47</v>
       </c>
@@ -9999,7 +9989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="24" customFormat="1" ht="76.5">
+    <row r="50" spans="1:21" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="53">
         <v>48</v>
       </c>
@@ -10054,7 +10044,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21" ht="60.75">
+    <row r="51" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="53">
         <v>49</v>
       </c>
@@ -10104,11 +10094,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="45.75">
+    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="53">
         <v>50</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="62" t="s">
         <v>321</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -10154,11 +10144,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="60.75">
+    <row r="53" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="53">
         <v>51</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -10204,7 +10194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30.75">
+    <row r="54" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="53">
         <v>52</v>
       </c>
@@ -10254,11 +10244,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="60.75">
+    <row r="55" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="53">
         <v>53</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="62" t="s">
         <v>333</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -10270,13 +10260,13 @@
       <c r="E55" s="2">
         <v>2010</v>
       </c>
-      <c r="F55" s="67" t="s">
+      <c r="F55" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="G55" s="67" t="s">
+      <c r="G55" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="65" t="s">
+      <c r="H55" s="62" t="s">
         <v>72</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -10304,7 +10294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="45.75">
+    <row r="56" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <v>54</v>
       </c>
@@ -10354,7 +10344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="76.5">
+    <row r="57" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="53">
         <v>55</v>
       </c>
@@ -10404,7 +10394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="60.75">
+    <row r="58" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="53">
         <v>56</v>
       </c>
@@ -10444,7 +10434,7 @@
       <c r="M58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N58" s="67" t="s">
+      <c r="N58" s="64" t="s">
         <v>355</v>
       </c>
       <c r="O58" s="2" t="s">
@@ -10454,7 +10444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="91.5">
+    <row r="59" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="53">
         <v>57</v>
       </c>
@@ -10504,11 +10494,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="76.5">
+    <row r="60" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="53">
         <v>58</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="62" t="s">
         <v>364</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -10523,7 +10513,7 @@
       <c r="F60" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G60" s="67" t="s">
+      <c r="G60" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -10554,7 +10544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="121.5">
+    <row r="61" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="53">
         <v>59</v>
       </c>
@@ -10604,7 +10594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="106.5">
+    <row r="62" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="53">
         <v>60</v>
       </c>
@@ -10654,7 +10644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="121.5">
+    <row r="63" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="53">
         <v>61</v>
       </c>
@@ -10704,7 +10694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="106.5">
+    <row r="64" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="53">
         <v>62</v>
       </c>
@@ -10754,11 +10744,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="76.5">
+    <row r="65" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="53">
         <v>63</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="62" t="s">
         <v>386</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -10801,11 +10791,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="60.75">
+    <row r="66" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>64</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="62" t="s">
         <v>390</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -10851,7 +10841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="198">
+    <row r="67" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A67" s="53">
         <v>65</v>
       </c>
@@ -10901,11 +10891,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="45.75">
+    <row r="68" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="53">
         <v>66</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="62" t="s">
         <v>400</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -10948,11 +10938,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="30.75">
+    <row r="69" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="53">
         <v>67</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="62" t="s">
         <v>402</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -10970,7 +10960,7 @@
       <c r="G69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="65" t="s">
+      <c r="H69" s="62" t="s">
         <v>115</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -10998,11 +10988,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="30.75">
+    <row r="70" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="53">
         <v>68</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="62" t="s">
         <v>406</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -11020,7 +11010,7 @@
       <c r="G70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="65" t="s">
+      <c r="H70" s="62" t="s">
         <v>115</v>
       </c>
       <c r="I70" s="2" t="s">
@@ -11048,7 +11038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="76.5">
+    <row r="71" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="53">
         <v>69</v>
       </c>
@@ -11098,11 +11088,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="60.75">
+    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="53">
         <v>70</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="62" t="s">
         <v>412</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -11148,7 +11138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="30.75">
+    <row r="73" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="53">
         <v>71</v>
       </c>
@@ -11198,7 +11188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="60.75">
+    <row r="74" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="53">
         <v>72</v>
       </c>
@@ -11248,7 +11238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="121.5">
+    <row r="75" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="53">
         <v>73</v>
       </c>
@@ -11298,11 +11288,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="30.75">
+    <row r="76" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="53">
         <v>74</v>
       </c>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="62" t="s">
         <v>432</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -11320,7 +11310,7 @@
       <c r="G76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H76" s="65" t="s">
+      <c r="H76" s="62" t="s">
         <v>182</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -11345,11 +11335,11 @@
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="45.75">
+    <row r="77" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="53">
         <v>75</v>
       </c>
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="62" t="s">
         <v>437</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -11367,7 +11357,7 @@
       <c r="G77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="65" t="s">
+      <c r="H77" s="62" t="s">
         <v>182</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -11395,11 +11385,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="20.25" customHeight="1">
+    <row r="78" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="53">
         <v>76</v>
       </c>
-      <c r="B78" s="65" t="s">
+      <c r="B78" s="62" t="s">
         <v>438</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -11439,7 +11429,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="91.5">
+    <row r="79" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="53">
         <v>77</v>
       </c>
@@ -11489,7 +11479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="91.5">
+    <row r="80" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="53">
         <v>78</v>
       </c>
@@ -11539,11 +11529,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30.75">
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="53">
         <v>79</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="62" t="s">
         <v>452</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -11589,7 +11579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="91.5">
+    <row r="82" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="53">
         <v>80</v>
       </c>
@@ -11639,7 +11629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="91.5">
+    <row r="83" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="53">
         <v>81</v>
       </c>
@@ -11689,7 +11679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="76.5">
+    <row r="84" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="53">
         <v>82</v>
       </c>
@@ -11739,7 +11729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="91.5">
+    <row r="85" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="53">
         <v>83</v>
       </c>
@@ -11789,11 +11779,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="60.75">
+    <row r="86" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="53">
         <v>88</v>
       </c>
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="62" t="s">
         <v>472</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -11839,11 +11829,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="45.75">
+    <row r="87" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="53">
         <v>89</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="62" t="s">
         <v>476</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -11858,7 +11848,7 @@
       <c r="F87" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G87" s="67" t="s">
+      <c r="G87" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H87" s="3"/>
@@ -11887,11 +11877,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="76.5">
+    <row r="88" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="53">
         <v>90</v>
       </c>
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="62" t="s">
         <v>481</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -11906,7 +11896,7 @@
       <c r="F88" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G88" s="67" t="s">
+      <c r="G88" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H88" s="3"/>
@@ -11935,7 +11925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="45.75">
+    <row r="89" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="53">
         <v>91</v>
       </c>
@@ -11948,13 +11938,13 @@
       <c r="E89" s="2">
         <v>1960</v>
       </c>
-      <c r="F89" s="67" t="s">
+      <c r="F89" s="64" t="s">
         <v>486</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H89" s="67" t="s">
+      <c r="H89" s="64" t="s">
         <v>36</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -11982,11 +11972,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="24" customFormat="1" ht="30.75">
+    <row r="90" spans="1:16" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="53">
         <v>92</v>
       </c>
-      <c r="B90" s="66" t="s">
+      <c r="B90" s="63" t="s">
         <v>490</v>
       </c>
       <c r="C90" s="24" t="s">
@@ -11995,13 +11985,13 @@
       <c r="E90" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="66" t="s">
+      <c r="F90" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="G90" s="66" t="s">
+      <c r="G90" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="H90" s="66" t="s">
+      <c r="H90" s="63" t="s">
         <v>72</v>
       </c>
       <c r="I90" s="24" t="s">
@@ -12029,7 +12019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="62.25" customHeight="1">
+    <row r="91" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="53">
         <v>93</v>
       </c>
@@ -12045,7 +12035,7 @@
       <c r="F91" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G91" s="67" t="s">
+      <c r="G91" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -12076,11 +12066,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="152.25">
+    <row r="92" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="53">
         <v>94</v>
       </c>
-      <c r="B92" s="65" t="s">
+      <c r="B92" s="62" t="s">
         <v>498</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -12092,7 +12082,7 @@
       <c r="F92" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G92" s="67" t="s">
+      <c r="G92" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -12123,11 +12113,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="60.75">
+    <row r="93" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="53">
         <v>95</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="62" t="s">
         <v>502</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -12139,7 +12129,7 @@
       <c r="F93" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G93" s="67" t="s">
+      <c r="G93" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -12170,7 +12160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="60.75">
+    <row r="94" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="53">
         <v>96</v>
       </c>
@@ -12205,7 +12195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="45.75">
+    <row r="95" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="53">
         <v>97</v>
       </c>
@@ -12240,11 +12230,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="91.5">
+    <row r="96" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="53">
         <v>98</v>
       </c>
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="62" t="s">
         <v>508</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -12287,11 +12277,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="91.5">
+    <row r="97" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="53">
         <v>100</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="62" t="s">
         <v>515</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -12337,7 +12327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="45.75">
+    <row r="98" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="53">
         <v>101</v>
       </c>
@@ -12387,11 +12377,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="137.25">
+    <row r="99" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="53">
         <v>102</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="62" t="s">
         <v>526</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -12437,11 +12427,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="91.5">
+    <row r="100" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="53">
         <v>103</v>
       </c>
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="62" t="s">
         <v>532</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -12487,11 +12477,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="30.75">
+    <row r="101" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="53">
         <v>104</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="62" t="s">
         <v>538</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -12537,11 +12527,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="106.5">
+    <row r="102" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="53">
         <v>105</v>
       </c>
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="62" t="s">
         <v>542</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -12587,11 +12577,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="106.5">
+    <row r="103" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="53">
         <v>106</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="62" t="s">
         <v>547</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -12637,11 +12627,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="91.5">
+    <row r="104" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="53">
         <v>107</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="62" t="s">
         <v>550</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -12687,11 +12677,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="91.5">
+    <row r="105" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="53">
         <v>108</v>
       </c>
-      <c r="B105" s="65" t="s">
+      <c r="B105" s="62" t="s">
         <v>555</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -12737,11 +12727,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="106.5">
+    <row r="106" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="53">
         <v>109</v>
       </c>
-      <c r="B106" s="68" t="s">
+      <c r="B106" s="65" t="s">
         <v>558</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -12787,11 +12777,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="45.75">
+    <row r="107" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="53">
         <v>110</v>
       </c>
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="62" t="s">
         <v>560</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -12831,11 +12821,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="45.75">
+    <row r="108" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="53">
         <v>111</v>
       </c>
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="62" t="s">
         <v>567</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -12881,11 +12871,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="20.25" customHeight="1">
+    <row r="109" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="53">
         <v>112</v>
       </c>
-      <c r="B109" s="65" t="s">
+      <c r="B109" s="62" t="s">
         <v>572</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -12931,11 +12921,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="25.5" customHeight="1">
+    <row r="110" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="53">
         <v>113</v>
       </c>
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="62" t="s">
         <v>576</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -12969,11 +12959,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="29.25" customHeight="1">
+    <row r="111" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="53">
         <v>114</v>
       </c>
-      <c r="B111" s="65" t="s">
+      <c r="B111" s="62" t="s">
         <v>580</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -13004,11 +12994,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="32.25" customHeight="1">
+    <row r="112" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="53">
         <v>115</v>
       </c>
-      <c r="B112" s="65" t="s">
+      <c r="B112" s="62" t="s">
         <v>584</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -13036,11 +13026,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="33" customHeight="1">
+    <row r="113" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="53">
         <v>116</v>
       </c>
-      <c r="B113" s="65" t="s">
+      <c r="B113" s="62" t="s">
         <v>587</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -13065,11 +13055,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="28.5" customHeight="1">
+    <row r="114" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="53">
         <v>117</v>
       </c>
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="62" t="s">
         <v>588</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -13097,11 +13087,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="30.75">
+    <row r="115" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="53">
         <v>118</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="62" t="s">
         <v>591</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -13129,11 +13119,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="30.75">
+    <row r="116" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="53">
         <v>119</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="62" t="s">
         <v>592</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -13164,11 +13154,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="39" customHeight="1">
+    <row r="117" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="53">
         <v>120</v>
       </c>
-      <c r="B117" s="65" t="s">
+      <c r="B117" s="62" t="s">
         <v>594</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -13199,11 +13189,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="29.25" customHeight="1">
+    <row r="118" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="53">
         <v>121</v>
       </c>
-      <c r="B118" s="65" t="s">
+      <c r="B118" s="62" t="s">
         <v>595</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -13225,11 +13215,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="24.75" customHeight="1">
+    <row r="119" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="53">
         <v>122</v>
       </c>
-      <c r="B119" s="65" t="s">
+      <c r="B119" s="62" t="s">
         <v>596</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -13260,11 +13250,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="30.75" customHeight="1">
+    <row r="120" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="53">
         <v>123</v>
       </c>
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="62" t="s">
         <v>599</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -13292,11 +13282,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="30.75" customHeight="1">
+    <row r="121" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="53">
-        <v>123</v>
-      </c>
-      <c r="B121" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="62" t="s">
         <v>600</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -13324,9 +13314,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="42" customHeight="1">
+    <row r="122" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="53">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>601</v>
@@ -13384,13 +13374,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K109 J110:K110 B109:I110 P43:XFD43 L43:N43 L14:L19 L20:XFD21 L22:L23 N22:XFD23 O35:XFD35 L35:M35 L36:XFD42 B52:K60 B51:I51 K51 B62:K73 B61:I61 K61 B74:I74 K74 B100:K108 B98:I99 K98:K99 B4:K48 B88:K97 B87:I87 K87 B50:K50 B49:J49 B111:K121 A123:XFD1048576 A122:I122 K122:XFD122 B75:K86 A1:XFD3 L44:XFD121 L4:XFD12 L13:P13 R13:XFD13 N14:XFD19 L24:XFD33 L34:R34 T34:XFD34">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+  <conditionalFormatting sqref="A121">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD3 L4:XFD12 B4:K48 L13:P13 R13:XFD13 L14:L19 N14:XFD19 L20:XFD21 L22:L23 N22:XFD23 L24:XFD33 L34:R34 T34:XFD34 L35:M35 O35:XFD35 L36:XFD42 L43:N43 P43:XFD43 L44:XFD121 B49:J49 B50:K50 B51:I51 K51 B52:K60 B61:I61 K61 B62:K73 B74:I74 K74 B75:K86 B87:I87 K87 B88:K97 B98:I99 K98:K99 B100:K108 K109 B109:I110 J110:K110 B111:K121 A122:I122 K122:XFD122 A123:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13438,13 +13428,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -13452,7 +13442,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -13460,7 +13450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -13468,7 +13458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -13476,7 +13466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>394</v>
       </c>
@@ -13484,7 +13474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -13492,7 +13482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>951</v>
       </c>
@@ -13500,7 +13490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>477</v>
       </c>
@@ -13508,7 +13498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>358</v>
       </c>
@@ -13516,7 +13506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>329</v>
       </c>
@@ -13524,7 +13514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -13532,7 +13522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -13540,7 +13530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -13548,7 +13538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>494</v>
       </c>
@@ -13556,7 +13546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -13564,7 +13554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -13572,7 +13562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>434</v>
       </c>
@@ -13580,7 +13570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -13588,7 +13578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -13596,7 +13586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>440</v>
       </c>
@@ -13604,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>491</v>
       </c>
@@ -13612,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -13620,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>952</v>
       </c>
@@ -13628,7 +13618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>350</v>
       </c>
@@ -13636,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>953</v>
       </c>
@@ -13644,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -13652,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>256</v>
       </c>
@@ -13660,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>486</v>
       </c>
@@ -13668,7 +13658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>517</v>
       </c>
@@ -13676,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -13684,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>426</v>
       </c>
@@ -13692,7 +13682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -13700,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>954</v>
       </c>
@@ -13722,13 +13712,13 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>606</v>
       </c>
@@ -13736,7 +13726,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -13744,7 +13734,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -13752,15 +13742,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>609</v>
       </c>
@@ -13768,7 +13758,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>610</v>
       </c>
@@ -13776,7 +13766,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -13784,21 +13774,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Sin Información"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B5:B6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
@@ -13811,11 +13796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD282CD5-9C0B-4341-8BE6-025B18AE95E3}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -13828,7 +13813,7 @@
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>611</v>
       </c>
@@ -13857,7 +13842,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>620</v>
       </c>
@@ -13890,7 +13875,7 @@
         <v>-73.40153</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>621</v>
       </c>
@@ -13923,13 +13908,13 @@
         <v>-73.21223</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>622</v>
       </c>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>623</v>
       </c>
@@ -13950,7 +13935,7 @@
         <v>6.602996700005790</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f>REPLACE(E5,4,0,".")</f>
+        <f t="shared" ref="G5:G15" si="0">REPLACE(E5,4,0,".")</f>
         <v>-75.55128160765700</v>
       </c>
       <c r="H5" t="str">
@@ -13958,11 +13943,11 @@
         <v>6.60299</v>
       </c>
       <c r="I5" t="str">
-        <f>LEFT(G5,9)</f>
+        <f t="shared" ref="I5:I15" si="1">LEFT(G5,9)</f>
         <v>-75.55128</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>624</v>
       </c>
@@ -13983,7 +13968,7 @@
         <v>10.954547366298900</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f>REPLACE(E6,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-72.79636892380760</v>
       </c>
       <c r="H6" t="str">
@@ -13991,11 +13976,11 @@
         <v>10.95454</v>
       </c>
       <c r="I6" t="str">
-        <f>LEFT(G6,9)</f>
+        <f t="shared" si="1"/>
         <v>-72.79636</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>625</v>
       </c>
@@ -14016,7 +14001,7 @@
         <v>10.972308497896500</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f>REPLACE(E7,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-74.80363255294130</v>
       </c>
       <c r="H7" t="str">
@@ -14024,11 +14009,11 @@
         <v>10.97230</v>
       </c>
       <c r="I7" t="str">
-        <f>LEFT(G7,9)</f>
+        <f t="shared" si="1"/>
         <v>-74.80363</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>109</v>
       </c>
@@ -14045,23 +14030,23 @@
         <v>-7410378885532950</v>
       </c>
       <c r="F8" t="str">
-        <f>REPLACE(D8,2,0,".")</f>
+        <f t="shared" ref="F8:F15" si="2">REPLACE(D8,2,0,".")</f>
         <v>4.649589913032180</v>
       </c>
       <c r="G8" s="11" t="str">
-        <f>REPLACE(E8,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-74.10378885532950</v>
       </c>
       <c r="H8" t="str">
-        <f>LEFT(F8,7)</f>
+        <f t="shared" ref="H8:H15" si="3">LEFT(F8,7)</f>
         <v>4.64958</v>
       </c>
       <c r="I8" t="str">
-        <f>LEFT(G8,9)</f>
+        <f t="shared" si="1"/>
         <v>-74.10378</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>626</v>
       </c>
@@ -14078,23 +14063,23 @@
         <v>-7410378885532950</v>
       </c>
       <c r="F9" t="str">
-        <f>REPLACE(D9,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>4.649589913032180</v>
       </c>
       <c r="G9" s="11" t="str">
-        <f>REPLACE(E9,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-74.10378885532950</v>
       </c>
       <c r="H9" t="str">
-        <f>LEFT(F9,7)</f>
+        <f t="shared" si="3"/>
         <v>4.64958</v>
       </c>
       <c r="I9" t="str">
-        <f>LEFT(G9,9)</f>
+        <f t="shared" si="1"/>
         <v>-74.10378</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>161</v>
       </c>
@@ -14111,23 +14096,23 @@
         <v>-7327533577775710</v>
       </c>
       <c r="F10" t="str">
-        <f>REPLACE(D10,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>5.400134211226910</v>
       </c>
       <c r="G10" s="11" t="str">
-        <f>REPLACE(E10,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-73.27533577775710</v>
       </c>
       <c r="H10" t="str">
-        <f>LEFT(F10,7)</f>
+        <f t="shared" si="3"/>
         <v>5.40013</v>
       </c>
       <c r="I10" t="str">
-        <f>LEFT(G10,9)</f>
+        <f t="shared" si="1"/>
         <v>-73.27533</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>627</v>
       </c>
@@ -14144,23 +14129,23 @@
         <v>-7312099756140800</v>
       </c>
       <c r="F11" t="str">
-        <f>REPLACE(D11,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>7.111687709395550</v>
       </c>
       <c r="G11" s="11" t="str">
-        <f>REPLACE(E11,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-73.12099756140800</v>
       </c>
       <c r="H11" t="str">
-        <f>LEFT(F11,7)</f>
+        <f t="shared" si="3"/>
         <v>7.11168</v>
       </c>
       <c r="I11" t="str">
-        <f>LEFT(G11,9)</f>
+        <f t="shared" si="1"/>
         <v>-73.12099</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>628</v>
       </c>
@@ -14177,23 +14162,23 @@
         <v>-7699934256530110</v>
       </c>
       <c r="F12" t="str">
-        <f>REPLACE(D12,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>3.8804570167838600</v>
       </c>
       <c r="G12" s="11" t="str">
-        <f>REPLACE(E12,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-76.99934256530110</v>
       </c>
       <c r="H12" t="str">
-        <f>LEFT(F12,7)</f>
+        <f t="shared" si="3"/>
         <v>3.88045</v>
       </c>
       <c r="I12" t="str">
-        <f>LEFT(G12,9)</f>
+        <f t="shared" si="1"/>
         <v>-76.99934</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>629</v>
       </c>
@@ -14210,23 +14195,23 @@
         <v>-7656992402703010</v>
       </c>
       <c r="F13" t="str">
-        <f>REPLACE(D13,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>2.6224089570574200</v>
       </c>
       <c r="G13" s="11" t="str">
-        <f>REPLACE(E13,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-76.56992402703010</v>
       </c>
       <c r="H13" t="str">
-        <f>LEFT(F13,7)</f>
+        <f t="shared" si="3"/>
         <v>2.62240</v>
       </c>
       <c r="I13" t="str">
-        <f>LEFT(G13,9)</f>
+        <f t="shared" si="1"/>
         <v>-76.56992</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>309</v>
       </c>
@@ -14243,23 +14228,23 @@
         <v>-7569462276853750</v>
       </c>
       <c r="F14" t="str">
-        <f>REPLACE(D14,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>5.19088369039209</v>
       </c>
       <c r="G14" s="11" t="str">
-        <f>REPLACE(E14,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-75.69462276853750</v>
       </c>
       <c r="H14" t="str">
-        <f>LEFT(F14,7)</f>
+        <f t="shared" si="3"/>
         <v>5.19088</v>
       </c>
       <c r="I14" t="str">
-        <f>LEFT(G14,9)</f>
+        <f t="shared" si="1"/>
         <v>-75.69462</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>630</v>
       </c>
@@ -14276,28 +14261,28 @@
         <v>-7426029670121270</v>
       </c>
       <c r="F15" t="str">
-        <f>REPLACE(D15,2,0,".")</f>
+        <f t="shared" si="2"/>
         <v>1.0735189793117600</v>
       </c>
       <c r="G15" s="11" t="str">
-        <f>REPLACE(E15,4,0,".")</f>
+        <f t="shared" si="0"/>
         <v>-74.26029670121270</v>
       </c>
       <c r="H15" t="str">
-        <f>LEFT(F15,7)</f>
+        <f t="shared" si="3"/>
         <v>1.07351</v>
       </c>
       <c r="I15" t="str">
-        <f>LEFT(G15,9)</f>
+        <f t="shared" si="1"/>
         <v>-74.26029</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>392</v>
       </c>
@@ -14318,7 +14303,7 @@
         <v>10.393611246625200</v>
       </c>
       <c r="G17" s="11" t="str">
-        <f>REPLACE(E17,4,0,".")</f>
+        <f t="shared" ref="G17:G26" si="4">REPLACE(E17,4,0,".")</f>
         <v>-75.49685357292920</v>
       </c>
       <c r="H17" t="str">
@@ -14326,11 +14311,11 @@
         <v>10.39361</v>
       </c>
       <c r="I17" t="str">
-        <f>LEFT(G17,9)</f>
+        <f t="shared" ref="I17:I26" si="5">LEFT(G17,9)</f>
         <v>-75.49685</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
@@ -14347,23 +14332,23 @@
         <v>-7683970844547030</v>
       </c>
       <c r="F18" t="str">
-        <f>REPLACE(D18,2,0,".")</f>
+        <f t="shared" ref="F18:F24" si="6">REPLACE(D18,2,0,".")</f>
         <v>2.3100892903662</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f>REPLACE(E18,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-76.83970844547030</v>
       </c>
       <c r="H18" t="str">
-        <f>LEFT(F18,7)</f>
+        <f t="shared" ref="H18:H24" si="7">LEFT(F18,7)</f>
         <v>2.31008</v>
       </c>
       <c r="I18" t="str">
-        <f>LEFT(G18,9)</f>
+        <f t="shared" si="5"/>
         <v>-76.83970</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>201</v>
       </c>
@@ -14380,23 +14365,23 @@
         <v>-7718981459836530</v>
       </c>
       <c r="F19" t="str">
-        <f>REPLACE(D19,2,0,".")</f>
+        <f t="shared" si="6"/>
         <v>5.8891324465884400</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f>REPLACE(E19,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-77.18981459836530</v>
       </c>
       <c r="H19" t="str">
-        <f>LEFT(F19,7)</f>
+        <f t="shared" si="7"/>
         <v>5.88913</v>
       </c>
       <c r="I19" t="str">
-        <f>LEFT(G19,9)</f>
+        <f t="shared" si="5"/>
         <v>-77.18981</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
@@ -14407,23 +14392,23 @@
         <v>-7410378885532950</v>
       </c>
       <c r="F20" t="str">
-        <f>REPLACE(D20,2,0,".")</f>
+        <f t="shared" si="6"/>
         <v>4.649589913032180</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f>REPLACE(E20,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-74.10378885532950</v>
       </c>
       <c r="H20" t="str">
-        <f>LEFT(F20,7)</f>
+        <f t="shared" si="7"/>
         <v>4.64958</v>
       </c>
       <c r="I20" t="str">
-        <f>LEFT(G20,9)</f>
+        <f t="shared" si="5"/>
         <v>-74.10378</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1">
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>305</v>
       </c>
@@ -14440,23 +14425,23 @@
         <v>-7410352547772260</v>
       </c>
       <c r="F21" t="str">
-        <f>REPLACE(D21,2,0,".")</f>
+        <f t="shared" si="6"/>
         <v>4.809489808742290</v>
       </c>
       <c r="G21" s="11" t="str">
-        <f>REPLACE(E21,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-74.10352547772260</v>
       </c>
       <c r="H21" t="str">
-        <f>LEFT(F21,7)</f>
+        <f t="shared" si="7"/>
         <v>4.80948</v>
       </c>
       <c r="I21" t="str">
-        <f>LEFT(G21,9)</f>
+        <f t="shared" si="5"/>
         <v>-74.10352</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1">
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>632</v>
       </c>
@@ -14473,23 +14458,23 @@
         <v>-751948524593555</v>
       </c>
       <c r="F22" t="str">
-        <f>REPLACE(D22,2,0,".")</f>
+        <f t="shared" si="6"/>
         <v>3.7976694130894600</v>
       </c>
       <c r="G22" s="11" t="str">
-        <f>REPLACE(E22,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-75.1948524593555</v>
       </c>
       <c r="H22" t="str">
-        <f>LEFT(F22,7)</f>
+        <f t="shared" si="7"/>
         <v>3.79766</v>
       </c>
       <c r="I22" t="str">
-        <f>LEFT(G22,9)</f>
+        <f t="shared" si="5"/>
         <v>-75.19485</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>95</v>
       </c>
@@ -14506,23 +14491,23 @@
         <v>-7414277258024120</v>
       </c>
       <c r="F23" t="str">
-        <f>REPLACE(D23,2,0,".")</f>
+        <f t="shared" si="6"/>
         <v>4.864586160619670</v>
       </c>
       <c r="G23" s="11" t="str">
-        <f>REPLACE(E23,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-74.14277258024120</v>
       </c>
       <c r="H23" t="str">
-        <f>LEFT(F23,7)</f>
+        <f t="shared" si="7"/>
         <v>4.86458</v>
       </c>
       <c r="I23" t="str">
-        <f>LEFT(G23,9)</f>
+        <f t="shared" si="5"/>
         <v>-74.14277</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>633</v>
       </c>
@@ -14539,23 +14524,23 @@
         <v>-7442064386509440</v>
       </c>
       <c r="F24" t="str">
-        <f>REPLACE(D24,2,0,".")</f>
+        <f t="shared" si="6"/>
         <v>9.182535558903220</v>
       </c>
       <c r="G24" s="11" t="str">
-        <f>REPLACE(E24,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-74.42064386509440</v>
       </c>
       <c r="H24" t="str">
-        <f>LEFT(F24,7)</f>
+        <f t="shared" si="7"/>
         <v>9.18253</v>
       </c>
       <c r="I24" t="str">
-        <f>LEFT(G24,9)</f>
+        <f t="shared" si="5"/>
         <v>-74.42064</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>634</v>
       </c>
@@ -14570,7 +14555,7 @@
         <v>-0.1865936</v>
       </c>
       <c r="G25" s="11" t="str">
-        <f>REPLACE(E25,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-78.595348</v>
       </c>
       <c r="H25" t="str">
@@ -14578,11 +14563,11 @@
         <v>-0.18659</v>
       </c>
       <c r="I25" t="str">
-        <f>LEFT(G25,9)</f>
+        <f t="shared" si="5"/>
         <v>-78.59534</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>636</v>
       </c>
@@ -14603,7 +14588,7 @@
         <v>9.662675395795680</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f>REPLACE(E26,4,0,".")</f>
+        <f t="shared" si="4"/>
         <v>-73.74695921198920</v>
       </c>
       <c r="H26" t="str">
@@ -14611,17 +14596,17 @@
         <v>9.66267</v>
       </c>
       <c r="I26" t="str">
-        <f>LEFT(G26,9)</f>
+        <f t="shared" si="5"/>
         <v>-73.74695</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>637</v>
       </c>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>638</v>
       </c>
@@ -14642,7 +14627,7 @@
         <v>11.354770089779400</v>
       </c>
       <c r="G28" s="11" t="str">
-        <f>REPLACE(E28,4,0,".")</f>
+        <f t="shared" ref="G28:G52" si="8">REPLACE(E28,4,0,".")</f>
         <v>-72.52046896861310</v>
       </c>
       <c r="H28" t="str">
@@ -14650,11 +14635,11 @@
         <v>11.35477</v>
       </c>
       <c r="I28" t="str">
-        <f>LEFT(G28,9)</f>
+        <f t="shared" ref="I28:I52" si="9">LEFT(G28,9)</f>
         <v>-72.52046</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>489</v>
       </c>
@@ -14675,7 +14660,7 @@
         <v>4.711545314663990</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f>REPLACE(E29,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-74.20620849339080</v>
       </c>
       <c r="H29" t="str">
@@ -14683,11 +14668,11 @@
         <v>4.71154</v>
       </c>
       <c r="I29" t="str">
-        <f>LEFT(G29,9)</f>
+        <f t="shared" si="9"/>
         <v>-74.20620</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>639</v>
       </c>
@@ -14708,7 +14693,7 @@
         <v>5.404325191040160</v>
       </c>
       <c r="G30" s="11" t="str">
-        <f>REPLACE(E30,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-73.79561358437780</v>
       </c>
       <c r="H30" t="str">
@@ -14716,11 +14701,11 @@
         <v>5.40432</v>
       </c>
       <c r="I30" t="str">
-        <f>LEFT(G30,9)</f>
+        <f t="shared" si="9"/>
         <v>-73.79561</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>463</v>
       </c>
@@ -14741,7 +14726,7 @@
         <v>4.3103919687117200</v>
       </c>
       <c r="G31" s="11" t="str">
-        <f>REPLACE(E31,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-74.80311181121900</v>
       </c>
       <c r="H31" t="str">
@@ -14749,11 +14734,11 @@
         <v>4.31039</v>
       </c>
       <c r="I31" t="str">
-        <f>LEFT(G31,9)</f>
+        <f t="shared" si="9"/>
         <v>-74.80311</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>336</v>
       </c>
@@ -14774,7 +14759,7 @@
         <v>11.5344384</v>
       </c>
       <c r="G32" s="11" t="str">
-        <f>REPLACE(E32,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-72.953625</v>
       </c>
       <c r="H32" t="str">
@@ -14782,11 +14767,11 @@
         <v>11.53443</v>
       </c>
       <c r="I32" t="str">
-        <f>LEFT(G32,9)</f>
+        <f t="shared" si="9"/>
         <v>-72.95362</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>640</v>
       </c>
@@ -14803,11 +14788,11 @@
         <v>-7324005616523260</v>
       </c>
       <c r="F33" t="str">
-        <f>REPLACE(D33,2,0,".")</f>
+        <f t="shared" ref="F33:F38" si="10">REPLACE(D33,2,0,".")</f>
         <v>6.679525127536210</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f>REPLACE(E33,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-73.24005616523260</v>
       </c>
       <c r="H33" t="str">
@@ -14815,11 +14800,11 @@
         <v>6.67952</v>
       </c>
       <c r="I33" t="str">
-        <f>LEFT(G33,9)</f>
+        <f t="shared" si="9"/>
         <v>-73.24005</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>641</v>
       </c>
@@ -14836,11 +14821,11 @@
         <v>1132441016537150</v>
       </c>
       <c r="F34" t="str">
-        <f>REPLACE(D34,2,0,".")</f>
+        <f t="shared" si="10"/>
         <v>2.315918148936360</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f>REPLACE(E34,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>113.2441016537150</v>
       </c>
       <c r="H34" t="str">
@@ -14848,11 +14833,11 @@
         <v>2.31591</v>
       </c>
       <c r="I34" t="str">
-        <f>LEFT(G34,9)</f>
+        <f t="shared" si="9"/>
         <v>113.24410</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>475</v>
       </c>
@@ -14869,11 +14854,11 @@
         <v>-7214625154351970</v>
       </c>
       <c r="F35" t="str">
-        <f>REPLACE(D35,2,0,".")</f>
+        <f t="shared" si="10"/>
         <v>1.9609947772764700</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f>REPLACE(E35,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-72.14625154351970</v>
       </c>
       <c r="H35" t="str">
@@ -14881,11 +14866,11 @@
         <v>1.96099</v>
       </c>
       <c r="I35" t="str">
-        <f>LEFT(G35,9)</f>
+        <f t="shared" si="9"/>
         <v>-72.14625</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>172</v>
       </c>
@@ -14902,11 +14887,11 @@
         <v>-7606483670797310</v>
       </c>
       <c r="F36" t="str">
-        <f>REPLACE(D36,2,0,".")</f>
+        <f t="shared" si="10"/>
         <v>2.5487132519903100</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f>REPLACE(E36,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-76.06483670797310</v>
       </c>
       <c r="H36" t="str">
@@ -14914,11 +14899,11 @@
         <v>2.54871</v>
       </c>
       <c r="I36" t="str">
-        <f>LEFT(G36,9)</f>
+        <f t="shared" si="9"/>
         <v>-76.06483</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>642</v>
       </c>
@@ -14931,11 +14916,11 @@
         <v>-769762687</v>
       </c>
       <c r="F37" t="str">
-        <f>REPLACE(D37,2,0,".")</f>
+        <f t="shared" si="10"/>
         <v>1.6006785</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f>REPLACE(E37,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-76.9762687</v>
       </c>
       <c r="H37" t="str">
@@ -14943,11 +14928,11 @@
         <v>1.60067</v>
       </c>
       <c r="I37" t="str">
-        <f>LEFT(G37,9)</f>
+        <f t="shared" si="9"/>
         <v>-76.97626</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>643</v>
       </c>
@@ -14964,23 +14949,23 @@
         <v>-7406280029541380</v>
       </c>
       <c r="F38" t="str">
-        <f>REPLACE(D38,2,0,".")</f>
+        <f t="shared" si="10"/>
         <v>9.917671756661290</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f>REPLACE(E38,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-74.06280029541380</v>
       </c>
       <c r="H38" t="str">
-        <f>LEFT(F38,8)</f>
+        <f t="shared" ref="H38:H52" si="11">LEFT(F38,8)</f>
         <v>9.917671</v>
       </c>
       <c r="I38" t="str">
-        <f>LEFT(G38,9)</f>
+        <f t="shared" si="9"/>
         <v>-74.06280</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>644</v>
       </c>
@@ -15001,19 +14986,19 @@
         <v>11.377857958198800</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f>REPLACE(E39,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-72.24339693710040</v>
       </c>
       <c r="H39" t="str">
-        <f>LEFT(F39,8)</f>
+        <f t="shared" si="11"/>
         <v>11.37785</v>
       </c>
       <c r="I39" t="str">
-        <f>LEFT(G39,9)</f>
+        <f t="shared" si="9"/>
         <v>-72.24339</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>310</v>
       </c>
@@ -15034,19 +15019,19 @@
         <v>5.05364497512753</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f>REPLACE(E40,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-75.49738315514960</v>
       </c>
       <c r="H40" t="str">
-        <f>LEFT(F40,8)</f>
+        <f t="shared" si="11"/>
         <v>5.053644</v>
       </c>
       <c r="I40" t="str">
-        <f>LEFT(G40,9)</f>
+        <f t="shared" si="9"/>
         <v>-75.49738</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>405</v>
       </c>
@@ -15067,19 +15052,19 @@
         <v>5.475047071174830</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f>REPLACE(E41,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-75.60018196987790</v>
       </c>
       <c r="H41" t="str">
-        <f>LEFT(F41,8)</f>
+        <f t="shared" si="11"/>
         <v>5.475047</v>
       </c>
       <c r="I41" t="str">
-        <f>LEFT(G41,9)</f>
+        <f t="shared" si="9"/>
         <v>-75.60018</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>645</v>
       </c>
@@ -15100,19 +15085,19 @@
         <v>6.216123118943550</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f>REPLACE(E42,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-75.57667643023620</v>
       </c>
       <c r="H42" t="str">
-        <f>LEFT(F42,8)</f>
+        <f t="shared" si="11"/>
         <v>6.216123</v>
       </c>
       <c r="I42" t="str">
-        <f>LEFT(G42,9)</f>
+        <f t="shared" si="9"/>
         <v>-75.57667</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>646</v>
       </c>
@@ -15133,19 +15118,19 @@
         <v>4.138024529068210</v>
       </c>
       <c r="G43" s="11" t="str">
-        <f>REPLACE(E43,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-73.62869683690400</v>
       </c>
       <c r="H43" t="str">
-        <f>LEFT(F43,8)</f>
+        <f t="shared" si="11"/>
         <v>4.138024</v>
       </c>
       <c r="I43" t="str">
-        <f>LEFT(G43,9)</f>
+        <f t="shared" si="9"/>
         <v>-73.62869</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>647</v>
       </c>
@@ -15160,19 +15145,19 @@
         <v>19.3904678</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f>REPLACE(E44,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-99.4554443</v>
       </c>
       <c r="H44" t="str">
-        <f>LEFT(F44,8)</f>
+        <f t="shared" si="11"/>
         <v>19.39046</v>
       </c>
       <c r="I44" t="str">
-        <f>LEFT(G44,9)</f>
+        <f t="shared" si="9"/>
         <v>-99.45544</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>455</v>
       </c>
@@ -15193,19 +15178,19 @@
         <v>11.142858432718700</v>
       </c>
       <c r="G45" s="11" t="str">
-        <f>REPLACE(E45,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-74.11705533929150</v>
       </c>
       <c r="H45" t="str">
-        <f>LEFT(F45,8)</f>
+        <f t="shared" si="11"/>
         <v>11.14285</v>
       </c>
       <c r="I45" t="str">
-        <f>LEFT(G45,9)</f>
+        <f t="shared" si="9"/>
         <v>-74.11705</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>648</v>
       </c>
@@ -15222,23 +15207,23 @@
         <v>-7665068698053000</v>
       </c>
       <c r="F46" t="str">
-        <f>REPLACE(D46,2,0,".")</f>
+        <f t="shared" ref="F46:F52" si="12">REPLACE(D46,2,0,".")</f>
         <v>1.1524155346059200</v>
       </c>
       <c r="G46" s="11" t="str">
-        <f>REPLACE(E46,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-76.65068698053000</v>
       </c>
       <c r="H46" t="str">
-        <f>LEFT(F46,8)</f>
+        <f t="shared" si="11"/>
         <v>1.152415</v>
       </c>
       <c r="I46" t="str">
-        <f>LEFT(G46,9)</f>
+        <f t="shared" si="9"/>
         <v>-76.65068</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>320</v>
       </c>
@@ -15255,23 +15240,23 @@
         <v>-7442586978958250</v>
       </c>
       <c r="F47" t="str">
-        <f>REPLACE(D47,2,0,".")</f>
+        <f t="shared" si="12"/>
         <v>9.24118435179811</v>
       </c>
       <c r="G47" s="11" t="str">
-        <f>REPLACE(E47,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-74.42586978958250</v>
       </c>
       <c r="H47" t="str">
-        <f>LEFT(F47,8)</f>
+        <f t="shared" si="11"/>
         <v>9.241184</v>
       </c>
       <c r="I47" t="str">
-        <f>LEFT(G47,9)</f>
+        <f t="shared" si="9"/>
         <v>-74.42586</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>531</v>
       </c>
@@ -15288,23 +15273,23 @@
         <v>-7587888150267840</v>
       </c>
       <c r="F48" t="str">
-        <f>REPLACE(D48,2,0,".")</f>
+        <f t="shared" si="12"/>
         <v>8.749009303602400</v>
       </c>
       <c r="G48" s="11" t="str">
-        <f>REPLACE(E48,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-75.87888150267840</v>
       </c>
       <c r="H48" t="str">
-        <f>LEFT(F48,8)</f>
+        <f t="shared" si="11"/>
         <v>8.749009</v>
       </c>
       <c r="I48" t="str">
-        <f>LEFT(G48,9)</f>
+        <f t="shared" si="9"/>
         <v>-75.87888</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>649</v>
       </c>
@@ -15321,23 +15306,23 @@
         <v>-7509344101137740</v>
       </c>
       <c r="F49" t="str">
-        <f>REPLACE(D49,2,0,".")</f>
+        <f t="shared" si="12"/>
         <v>3.6224023859667900</v>
       </c>
       <c r="G49" s="11" t="str">
-        <f>REPLACE(E49,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-75.09344101137740</v>
       </c>
       <c r="H49" t="str">
-        <f>LEFT(F49,8)</f>
+        <f t="shared" si="11"/>
         <v>3.622402</v>
       </c>
       <c r="I49" t="str">
-        <f>LEFT(G49,9)</f>
+        <f t="shared" si="9"/>
         <v>-75.09344</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>480</v>
       </c>
@@ -15354,23 +15339,23 @@
         <v>-7387776417580510</v>
       </c>
       <c r="F50" t="str">
-        <f>REPLACE(D50,2,0,".")</f>
+        <f t="shared" si="12"/>
         <v>5.066891947235170</v>
       </c>
       <c r="G50" s="11" t="str">
-        <f>REPLACE(E50,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-73.87776417580510</v>
       </c>
       <c r="H50" t="str">
-        <f>LEFT(F50,8)</f>
+        <f t="shared" si="11"/>
         <v>5.066891</v>
       </c>
       <c r="I50" t="str">
-        <f>LEFT(G50,9)</f>
+        <f t="shared" si="9"/>
         <v>-73.87776</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>650</v>
       </c>
@@ -15387,23 +15372,23 @@
         <v>-7461933425949360</v>
       </c>
       <c r="F51" t="str">
-        <f>REPLACE(D51,2,0,".")</f>
+        <f t="shared" si="12"/>
         <v>4.307488762157300</v>
       </c>
       <c r="G51" s="11" t="str">
-        <f>REPLACE(E51,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-74.61933425949360</v>
       </c>
       <c r="H51" t="str">
-        <f>LEFT(F51,8)</f>
+        <f t="shared" si="11"/>
         <v>4.307488</v>
       </c>
       <c r="I51" t="str">
-        <f>LEFT(G51,9)</f>
+        <f t="shared" si="9"/>
         <v>-74.61933</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>651</v>
       </c>
@@ -15420,29 +15405,29 @@
         <v>-752214265123936</v>
       </c>
       <c r="F52" t="str">
-        <f>REPLACE(D52,2,0,".")</f>
+        <f t="shared" si="12"/>
         <v>3.9340566766435300</v>
       </c>
       <c r="G52" s="11" t="str">
-        <f>REPLACE(E52,4,0,".")</f>
+        <f t="shared" si="8"/>
         <v>-75.2214265123936</v>
       </c>
       <c r="H52" t="str">
-        <f>LEFT(F52,8)</f>
+        <f t="shared" si="11"/>
         <v>3.934056</v>
       </c>
       <c r="I52" t="str">
-        <f>LEFT(G52,9)</f>
+        <f t="shared" si="9"/>
         <v>-75.22142</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30.75">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>652</v>
       </c>
       <c r="F53" s="29"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>653</v>
       </c>
@@ -15459,11 +15444,11 @@
         <v>-7727464904507930</v>
       </c>
       <c r="F54" t="str">
-        <f>REPLACE(D54,2,0,".")</f>
+        <f t="shared" ref="F54:F64" si="13">REPLACE(D54,2,0,".")</f>
         <v>1.210092679675750</v>
       </c>
       <c r="G54" s="11" t="str">
-        <f>REPLACE(E54,4,0,".")</f>
+        <f t="shared" ref="G54:G64" si="14">REPLACE(E54,4,0,".")</f>
         <v>-77.27464904507930</v>
       </c>
       <c r="H54" t="str">
@@ -15471,11 +15456,11 @@
         <v>1.210092</v>
       </c>
       <c r="I54" t="str">
-        <f>LEFT(G54,9)</f>
+        <f t="shared" ref="I54:I64" si="15">LEFT(G54,9)</f>
         <v>-77.27464</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>654</v>
       </c>
@@ -15492,11 +15477,11 @@
         <v>-7656926228902830</v>
       </c>
       <c r="F55" t="str">
-        <f>REPLACE(D55,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>2.7135282704562800</v>
       </c>
       <c r="G55" s="11" t="str">
-        <f>REPLACE(E55,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-76.56926228902830</v>
       </c>
       <c r="H55" t="str">
@@ -15504,11 +15489,11 @@
         <v>2.713528</v>
       </c>
       <c r="I55" t="str">
-        <f>LEFT(G55,9)</f>
+        <f t="shared" si="15"/>
         <v>-76.56926</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>119</v>
       </c>
@@ -15525,11 +15510,11 @@
         <v>-7604796697597840</v>
       </c>
       <c r="F56" t="str">
-        <f>REPLACE(D56,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>1.8586421851374600</v>
       </c>
       <c r="G56" s="11" t="str">
-        <f>REPLACE(E56,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-76.04796697597840</v>
       </c>
       <c r="H56" t="str">
@@ -15537,11 +15522,11 @@
         <v>1.85864</v>
       </c>
       <c r="I56" t="str">
-        <f>LEFT(G56,9)</f>
+        <f t="shared" si="15"/>
         <v>-76.04796</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>119</v>
       </c>
@@ -15558,23 +15543,23 @@
         <v>-760459940733739</v>
       </c>
       <c r="F57" t="str">
-        <f>REPLACE(D57,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>1.8536662608259800</v>
       </c>
       <c r="G57" s="11" t="str">
-        <f>REPLACE(E57,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-76.0459940733739</v>
       </c>
       <c r="H57" t="str">
-        <f>LEFT(F57,8)</f>
+        <f t="shared" ref="H57:H64" si="16">LEFT(F57,8)</f>
         <v>1.853666</v>
       </c>
       <c r="I57" t="str">
-        <f>LEFT(G57,9)</f>
+        <f t="shared" si="15"/>
         <v>-76.04599</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>655</v>
       </c>
@@ -15591,23 +15576,23 @@
         <v>-7661418300872760</v>
       </c>
       <c r="F58" t="str">
-        <f>REPLACE(D58,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>2.44109138263947</v>
       </c>
       <c r="G58" s="11" t="str">
-        <f>REPLACE(E58,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-76.61418300872760</v>
       </c>
       <c r="H58" t="str">
-        <f>LEFT(F58,8)</f>
+        <f t="shared" si="16"/>
         <v>2.441091</v>
       </c>
       <c r="I58" t="str">
-        <f>LEFT(G58,9)</f>
+        <f t="shared" si="15"/>
         <v>-76.61418</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>656</v>
       </c>
@@ -15624,23 +15609,23 @@
         <v>-7110065350153380</v>
       </c>
       <c r="F59" t="str">
-        <f>REPLACE(D59,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>6.27999404522692</v>
       </c>
       <c r="G59" s="11" t="str">
-        <f>REPLACE(E59,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-71.10065350153380</v>
       </c>
       <c r="H59" t="str">
-        <f>LEFT(F59,8)</f>
+        <f t="shared" si="16"/>
         <v>6.279994</v>
       </c>
       <c r="I59" t="str">
-        <f>LEFT(G59,9)</f>
+        <f t="shared" si="15"/>
         <v>-71.10065</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>195</v>
       </c>
@@ -15657,23 +15642,23 @@
         <v>-7665319154610970</v>
       </c>
       <c r="F60" t="str">
-        <f>REPLACE(D60,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>5.689140582629880</v>
       </c>
       <c r="G60" s="11" t="str">
-        <f>REPLACE(E60,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-76.65319154610970</v>
       </c>
       <c r="H60" t="str">
-        <f>LEFT(F60,8)</f>
+        <f t="shared" si="16"/>
         <v>5.689140</v>
       </c>
       <c r="I60" t="str">
-        <f>LEFT(G60,9)</f>
+        <f t="shared" si="15"/>
         <v>-76.65319</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>298</v>
       </c>
@@ -15690,23 +15675,23 @@
         <v>-757310859088828</v>
       </c>
       <c r="F61" t="str">
-        <f>REPLACE(D61,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>5.340411375453660</v>
       </c>
       <c r="G61" s="11" t="str">
-        <f>REPLACE(E61,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-75.7310859088828</v>
       </c>
       <c r="H61" t="str">
-        <f>LEFT(F61,8)</f>
+        <f t="shared" si="16"/>
         <v>5.340411</v>
       </c>
       <c r="I61" t="str">
-        <f>LEFT(G61,9)</f>
+        <f t="shared" si="15"/>
         <v>-75.73108</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>657</v>
       </c>
@@ -15723,23 +15708,23 @@
         <v>-7587984349067130</v>
       </c>
       <c r="F62" t="str">
-        <f>REPLACE(D62,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>4.53576517784721</v>
       </c>
       <c r="G62" s="11" t="str">
-        <f>REPLACE(E62,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-75.87984349067130</v>
       </c>
       <c r="H62" t="str">
-        <f>LEFT(F62,8)</f>
+        <f t="shared" si="16"/>
         <v>4.535765</v>
       </c>
       <c r="I62" t="str">
-        <f>LEFT(G62,9)</f>
+        <f t="shared" si="15"/>
         <v>-75.87984</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>658</v>
       </c>
@@ -15756,23 +15741,23 @@
         <v>-7453333836105650</v>
       </c>
       <c r="F63" t="str">
-        <f>REPLACE(D63,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>4.745296657328430</v>
       </c>
       <c r="G63" s="11" t="str">
-        <f>REPLACE(E63,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-74.53333836105650</v>
       </c>
       <c r="H63" t="str">
-        <f>LEFT(F63,8)</f>
+        <f t="shared" si="16"/>
         <v>4.745296</v>
       </c>
       <c r="I63" t="str">
-        <f>LEFT(G63,9)</f>
+        <f t="shared" si="15"/>
         <v>-74.53333</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>659</v>
       </c>
@@ -15789,39 +15774,39 @@
         <v>-7363170336106320</v>
       </c>
       <c r="F64" t="str">
-        <f>REPLACE(D64,2,0,".")</f>
+        <f t="shared" si="13"/>
         <v>5.53958182674053</v>
       </c>
       <c r="G64" s="11" t="str">
-        <f>REPLACE(E64,4,0,".")</f>
+        <f t="shared" si="14"/>
         <v>-73.63170336106320</v>
       </c>
       <c r="H64" t="str">
-        <f>LEFT(F64,8)</f>
+        <f t="shared" si="16"/>
         <v>5.539581</v>
       </c>
       <c r="I64" t="str">
-        <f>LEFT(G64,9)</f>
+        <f t="shared" si="15"/>
         <v>-73.63170</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="30.75">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>661</v>
       </c>
       <c r="F66" s="29"/>
     </row>
-    <row r="67" spans="1:9" ht="30.75">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
         <v>448</v>
       </c>
@@ -15842,19 +15827,19 @@
         <v>1.1771708344673800</v>
       </c>
       <c r="G68" s="11" t="str">
-        <f>REPLACE(E68,4,0,".")</f>
+        <f t="shared" ref="G68:G97" si="17">REPLACE(E68,4,0,".")</f>
         <v>-78.04160037226940</v>
       </c>
       <c r="H68" t="str">
-        <f>LEFT(F68,8)</f>
+        <f t="shared" ref="H68:H97" si="18">LEFT(F68,8)</f>
         <v>1.177170</v>
       </c>
       <c r="I68" t="str">
-        <f>LEFT(G68,9)</f>
+        <f t="shared" ref="I68:I97" si="19">LEFT(G68,9)</f>
         <v>-78.04160</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>34</v>
       </c>
@@ -15875,19 +15860,19 @@
         <v>2.646884741075540</v>
       </c>
       <c r="G69" s="11" t="str">
-        <f>REPLACE(E69,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-69.64856685883110</v>
       </c>
       <c r="H69" t="str">
-        <f>LEFT(F69,8)</f>
+        <f t="shared" si="18"/>
         <v>2.646884</v>
       </c>
       <c r="I69" t="str">
-        <f>LEFT(G69,9)</f>
+        <f t="shared" si="19"/>
         <v>-69.64856</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>297</v>
       </c>
@@ -15908,19 +15893,19 @@
         <v>4.876955129627010</v>
       </c>
       <c r="G70" s="11" t="str">
-        <f>REPLACE(E70,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-75.85371971527160</v>
       </c>
       <c r="H70" t="str">
-        <f>LEFT(F70,8)</f>
+        <f t="shared" si="18"/>
         <v>4.876955</v>
       </c>
       <c r="I70" t="str">
-        <f>LEFT(G70,9)</f>
+        <f t="shared" si="19"/>
         <v>-75.85371</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>537</v>
       </c>
@@ -15941,19 +15926,19 @@
         <v>10.788801225886500</v>
       </c>
       <c r="G71" s="11" t="str">
-        <f>REPLACE(E71,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-74.75713227805100</v>
       </c>
       <c r="H71" t="str">
-        <f>LEFT(F71,8)</f>
+        <f t="shared" si="18"/>
         <v>10.78880</v>
       </c>
       <c r="I71" t="str">
-        <f>LEFT(G71,9)</f>
+        <f t="shared" si="19"/>
         <v>-74.75713</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>571</v>
       </c>
@@ -15974,19 +15959,19 @@
         <v>1.8811131867883100</v>
       </c>
       <c r="G72" s="11" t="str">
-        <f>REPLACE(E72,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-76.26856095803460</v>
       </c>
       <c r="H72" t="str">
-        <f>LEFT(F72,8)</f>
+        <f t="shared" si="18"/>
         <v>1.881113</v>
       </c>
       <c r="I72" t="str">
-        <f>LEFT(G72,9)</f>
+        <f t="shared" si="19"/>
         <v>-76.26856</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>663</v>
       </c>
@@ -16007,19 +15992,19 @@
         <v>10.772960653509800</v>
       </c>
       <c r="G73" s="11" t="str">
-        <f>REPLACE(E73,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.00323005933120</v>
       </c>
       <c r="H73" t="str">
-        <f>LEFT(F73,8)</f>
+        <f t="shared" si="18"/>
         <v>10.77296</v>
       </c>
       <c r="I73" t="str">
-        <f>LEFT(G73,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.00323</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>664</v>
       </c>
@@ -16040,19 +16025,19 @@
         <v>10.119800117253600</v>
       </c>
       <c r="G74" s="11" t="str">
-        <f>REPLACE(E74,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.01104762911200</v>
       </c>
       <c r="H74" t="str">
-        <f>LEFT(F74,8)</f>
+        <f t="shared" si="18"/>
         <v>10.11980</v>
       </c>
       <c r="I74" t="str">
-        <f>LEFT(G74,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.01104</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>665</v>
       </c>
@@ -16073,19 +16058,19 @@
         <v>3.1131528876578700</v>
       </c>
       <c r="G75" s="11" t="str">
-        <f>REPLACE(E75,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>121.52756456942000</v>
       </c>
       <c r="H75" t="str">
-        <f>LEFT(F75,8)</f>
+        <f t="shared" si="18"/>
         <v>3.113152</v>
       </c>
       <c r="I75" t="str">
-        <f>LEFT(G75,9)</f>
+        <f t="shared" si="19"/>
         <v>121.52756</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>178</v>
       </c>
@@ -16106,19 +16091,19 @@
         <v>10.803229591080600</v>
       </c>
       <c r="G76" s="11" t="str">
-        <f>REPLACE(E76,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.70472101238270</v>
       </c>
       <c r="H76" t="str">
-        <f>LEFT(F76,8)</f>
+        <f t="shared" si="18"/>
         <v>10.80322</v>
       </c>
       <c r="I76" t="str">
-        <f>LEFT(G76,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.70472</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>666</v>
       </c>
@@ -16135,23 +16120,23 @@
         <v>-7637683246411920</v>
       </c>
       <c r="F77" t="str">
-        <f>REPLACE(D77,2,0,".")</f>
+        <f t="shared" ref="F77:F88" si="20">REPLACE(D77,2,0,".")</f>
         <v>2.612557696041020</v>
       </c>
       <c r="G77" s="11" t="str">
-        <f>REPLACE(E77,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-76.37683246411920</v>
       </c>
       <c r="H77" t="str">
-        <f>LEFT(F77,8)</f>
+        <f t="shared" si="18"/>
         <v>2.612557</v>
       </c>
       <c r="I77" t="str">
-        <f>LEFT(G77,9)</f>
+        <f t="shared" si="19"/>
         <v>-76.37683</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>667</v>
       </c>
@@ -16168,23 +16153,23 @@
         <v>-738528322675445</v>
       </c>
       <c r="F78" t="str">
-        <f>REPLACE(D78,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>5.502895488591320</v>
       </c>
       <c r="G78" s="11" t="str">
-        <f>REPLACE(E78,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.8528322675445</v>
       </c>
       <c r="H78" t="str">
-        <f>LEFT(F78,8)</f>
+        <f t="shared" si="18"/>
         <v>5.502895</v>
       </c>
       <c r="I78" t="str">
-        <f>LEFT(G78,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.85283</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>314</v>
       </c>
@@ -16201,23 +16186,23 @@
         <v>-7394150065508740</v>
       </c>
       <c r="F79" t="str">
-        <f>REPLACE(D79,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>4.907192846238160</v>
       </c>
       <c r="G79" s="11" t="str">
-        <f>REPLACE(E79,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.94150065508740</v>
       </c>
       <c r="H79" t="str">
-        <f>LEFT(F79,8)</f>
+        <f t="shared" si="18"/>
         <v>4.907192</v>
       </c>
       <c r="I79" t="str">
-        <f>LEFT(G79,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.94150</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>50</v>
       </c>
@@ -16234,23 +16219,23 @@
         <v>-7669430800154390</v>
       </c>
       <c r="F80" t="str">
-        <f>REPLACE(D80,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>2.9545012867098300</v>
       </c>
       <c r="G80" s="11" t="str">
-        <f>REPLACE(E80,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-76.69430800154390</v>
       </c>
       <c r="H80" t="str">
-        <f>LEFT(F80,8)</f>
+        <f t="shared" si="18"/>
         <v>2.954501</v>
       </c>
       <c r="I80" t="str">
-        <f>LEFT(G80,9)</f>
+        <f t="shared" si="19"/>
         <v>-76.69430</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>668</v>
       </c>
@@ -16267,23 +16252,23 @@
         <v>-7558801848146130</v>
       </c>
       <c r="F81" t="str">
-        <f>REPLACE(D81,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>5.637064875949180</v>
       </c>
       <c r="G81" s="11" t="str">
-        <f>REPLACE(E81,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-75.58801848146130</v>
       </c>
       <c r="H81" t="str">
-        <f>LEFT(F81,8)</f>
+        <f t="shared" si="18"/>
         <v>5.637064</v>
       </c>
       <c r="I81" t="str">
-        <f>LEFT(G81,9)</f>
+        <f t="shared" si="19"/>
         <v>-75.58801</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>669</v>
       </c>
@@ -16300,23 +16285,23 @@
         <v>-7381470703841990</v>
       </c>
       <c r="F82" t="str">
-        <f>REPLACE(D82,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>5.453561005321650</v>
       </c>
       <c r="G82" s="11" t="str">
-        <f>REPLACE(E82,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.81470703841990</v>
       </c>
       <c r="H82" t="str">
-        <f>LEFT(F82,8)</f>
+        <f t="shared" si="18"/>
         <v>5.453561</v>
       </c>
       <c r="I82" t="str">
-        <f>LEFT(G82,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.81470</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>670</v>
       </c>
@@ -16333,23 +16318,23 @@
         <v>-7362027133434600</v>
       </c>
       <c r="F83" t="str">
-        <f>REPLACE(D83,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>5.62011025013234</v>
       </c>
       <c r="G83" s="11" t="str">
-        <f>REPLACE(E83,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.62027133434600</v>
       </c>
       <c r="H83" t="str">
-        <f>LEFT(F83,8)</f>
+        <f t="shared" si="18"/>
         <v>5.620110</v>
       </c>
       <c r="I83" t="str">
-        <f>LEFT(G83,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.62027</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
         <v>383</v>
       </c>
@@ -16366,23 +16351,23 @@
         <v>-7709767462867660</v>
       </c>
       <c r="F84" t="str">
-        <f>REPLACE(D84,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>1.42729717904575</v>
       </c>
       <c r="G84" s="11" t="str">
-        <f>REPLACE(E84,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-77.09767462867660</v>
       </c>
       <c r="H84" t="str">
-        <f>LEFT(F84,8)</f>
+        <f t="shared" si="18"/>
         <v>1.427297</v>
       </c>
       <c r="I84" t="str">
-        <f>LEFT(G84,9)</f>
+        <f t="shared" si="19"/>
         <v>-77.09767</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>671</v>
       </c>
@@ -16399,23 +16384,23 @@
         <v>-768112572944454</v>
       </c>
       <c r="F85" t="str">
-        <f>REPLACE(D85,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>2.4522023401725400</v>
       </c>
       <c r="G85" s="11" t="str">
-        <f>REPLACE(E85,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-76.8112572944454</v>
       </c>
       <c r="H85" t="str">
-        <f>LEFT(F85,8)</f>
+        <f t="shared" si="18"/>
         <v>2.452202</v>
       </c>
       <c r="I85" t="str">
-        <f>LEFT(G85,9)</f>
+        <f t="shared" si="19"/>
         <v>-76.81125</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>672</v>
       </c>
@@ -16432,23 +16417,23 @@
         <v>-7436345464209760</v>
       </c>
       <c r="F86" t="str">
-        <f>REPLACE(D86,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>9.328041425226080</v>
       </c>
       <c r="G86" s="11" t="str">
-        <f>REPLACE(E86,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-74.36345464209760</v>
       </c>
       <c r="H86" t="str">
-        <f>LEFT(F86,8)</f>
+        <f t="shared" si="18"/>
         <v>9.328041</v>
       </c>
       <c r="I86" t="str">
-        <f>LEFT(G86,9)</f>
+        <f t="shared" si="19"/>
         <v>-74.36345</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>673</v>
       </c>
@@ -16465,23 +16450,23 @@
         <v>-7364729563673080</v>
       </c>
       <c r="F87" t="str">
-        <f>REPLACE(D87,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>5.57885984104821</v>
       </c>
       <c r="G87" s="11" t="str">
-        <f>REPLACE(E87,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.64729563673080</v>
       </c>
       <c r="H87" t="str">
-        <f>LEFT(F87,8)</f>
+        <f t="shared" si="18"/>
         <v>5.578859</v>
       </c>
       <c r="I87" t="str">
-        <f>LEFT(G87,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.64729</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>674</v>
       </c>
@@ -16498,23 +16483,23 @@
         <v>-7464637651319290</v>
       </c>
       <c r="F88" t="str">
-        <f>REPLACE(D88,2,0,".")</f>
+        <f t="shared" si="20"/>
         <v>4.254571818973120</v>
       </c>
       <c r="G88" s="11" t="str">
-        <f>REPLACE(E88,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-74.64637651319290</v>
       </c>
       <c r="H88" t="str">
-        <f>LEFT(F88,8)</f>
+        <f t="shared" si="18"/>
         <v>4.254571</v>
       </c>
       <c r="I88" t="str">
-        <f>LEFT(G88,9)</f>
+        <f t="shared" si="19"/>
         <v>-74.64637</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>546</v>
       </c>
@@ -16535,19 +16520,19 @@
         <v>10.873815950536100</v>
       </c>
       <c r="G89" s="11" t="str">
-        <f>REPLACE(E89,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-74.97791188705370</v>
       </c>
       <c r="H89" t="str">
-        <f>LEFT(F89,8)</f>
+        <f t="shared" si="18"/>
         <v>10.87381</v>
       </c>
       <c r="I89" t="str">
-        <f>LEFT(G89,9)</f>
+        <f t="shared" si="19"/>
         <v>-74.97791</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>264</v>
       </c>
@@ -16568,19 +16553,19 @@
         <v>8.09386718816924</v>
       </c>
       <c r="G90" s="11" t="str">
-        <f>REPLACE(E90,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-76.73141134171520</v>
       </c>
       <c r="H90" t="str">
-        <f>LEFT(F90,8)</f>
+        <f t="shared" si="18"/>
         <v>8.093867</v>
       </c>
       <c r="I90" t="str">
-        <f>LEFT(G90,9)</f>
+        <f t="shared" si="19"/>
         <v>-76.73141</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>675</v>
       </c>
@@ -16601,19 +16586,19 @@
         <v>11.715574917627600</v>
       </c>
       <c r="G91" s="11" t="str">
-        <f>REPLACE(E91,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-72.26593303809250</v>
       </c>
       <c r="H91" t="str">
-        <f>LEFT(F91,8)</f>
+        <f t="shared" si="18"/>
         <v>11.71557</v>
       </c>
       <c r="I91" t="str">
-        <f>LEFT(G91,9)</f>
+        <f t="shared" si="19"/>
         <v>-72.26593</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>167</v>
       </c>
@@ -16634,19 +16619,19 @@
         <v>6.216123118943550</v>
       </c>
       <c r="G92" s="11" t="str">
-        <f>REPLACE(E92,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-75.57667643023620</v>
       </c>
       <c r="H92" t="str">
-        <f>LEFT(F92,8)</f>
+        <f t="shared" si="18"/>
         <v>6.216123</v>
       </c>
       <c r="I92" t="str">
-        <f>LEFT(G92,9)</f>
+        <f t="shared" si="19"/>
         <v>-75.57667</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>525</v>
       </c>
@@ -16667,19 +16652,19 @@
         <v>10.46568499575060</v>
       </c>
       <c r="G93" s="11" t="str">
-        <f>REPLACE(E93,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.25601894854040</v>
       </c>
       <c r="H93" t="str">
-        <f>LEFT(F93,8)</f>
+        <f t="shared" si="18"/>
         <v>10.46568</v>
       </c>
       <c r="I93" t="str">
-        <f>LEFT(G93,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.25601</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>348</v>
       </c>
@@ -16700,19 +16685,19 @@
         <v>4.859591225906040</v>
       </c>
       <c r="G94" s="11" t="str">
-        <f>REPLACE(E94,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-69.50606516485760</v>
       </c>
       <c r="H94" t="str">
-        <f>LEFT(F94,8)</f>
+        <f t="shared" si="18"/>
         <v>4.859591</v>
       </c>
       <c r="I94" t="str">
-        <f>LEFT(G94,9)</f>
+        <f t="shared" si="19"/>
         <v>-69.50606</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>676</v>
       </c>
@@ -16733,19 +16718,19 @@
         <v>5.63714002708056</v>
       </c>
       <c r="G95" s="11" t="str">
-        <f>REPLACE(E95,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-73.52697280771880</v>
       </c>
       <c r="H95" t="str">
-        <f>LEFT(F95,8)</f>
+        <f t="shared" si="18"/>
         <v>5.637140</v>
       </c>
       <c r="I95" t="str">
-        <f>LEFT(G95,9)</f>
+        <f t="shared" si="19"/>
         <v>-73.52697</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>471</v>
       </c>
@@ -16766,19 +16751,19 @@
         <v>5.01063077861325</v>
       </c>
       <c r="G96" s="11" t="str">
-        <f>REPLACE(E96,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-74.4721774034647</v>
       </c>
       <c r="H96" t="str">
-        <f>LEFT(F96,8)</f>
+        <f t="shared" si="18"/>
         <v>5.010630</v>
       </c>
       <c r="I96" t="str">
-        <f>LEFT(G96,9)</f>
+        <f t="shared" si="19"/>
         <v>-74.47217</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>677</v>
       </c>
@@ -16799,30 +16784,30 @@
         <v>38.8957260295292</v>
       </c>
       <c r="G97" s="11" t="str">
-        <f>REPLACE(E97,4,0,".")</f>
+        <f t="shared" si="17"/>
         <v>-77.02963117882210</v>
       </c>
       <c r="H97" t="str">
-        <f>LEFT(F97,8)</f>
+        <f t="shared" si="18"/>
         <v>38.89572</v>
       </c>
       <c r="I97" t="str">
-        <f>LEFT(G97,9)</f>
+        <f t="shared" si="19"/>
         <v>-77.02963</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="13"/>
       <c r="F101" s="29"/>
@@ -16831,7 +16816,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I97">
     <sortCondition ref="A2:A97"/>
   </sortState>
-  <conditionalFormatting sqref="A44:A62 A64:A97 A3:A42">
+  <conditionalFormatting sqref="A3:A42 A44:A62 A64:A97">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
@@ -16849,7 +16834,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="45" bestFit="1" customWidth="1"/>
@@ -16860,17 +16845,17 @@
     <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>678</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="47"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>679</v>
       </c>
@@ -16890,1981 +16875,1981 @@
         <v>683</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>684</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="62" t="s">
         <v>686</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="62" t="s">
         <v>687</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="66">
         <v>2003</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="67" t="s">
         <v>689</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="68" t="s">
         <v>690</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>691</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>692</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="66" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>694</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="66" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>695</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="68">
         <v>2019</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="68" t="s">
         <v>685</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>696</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="68">
         <v>2021</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="68" t="s">
         <v>685</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>698</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="66">
         <v>2023</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="66" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="68" t="s">
         <v>700</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="61" t="s">
         <v>701</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1">
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>702</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="66">
         <v>2019</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="66" t="s">
         <v>703</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="66" t="s">
         <v>704</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="61" t="s">
         <v>705</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="61" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1">
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="68">
         <v>1973</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="68" t="s">
         <v>708</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="66" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>709</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="61" t="s">
         <v>711</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>712</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="66">
         <v>2018</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="66" t="s">
         <v>713</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>714</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="66">
         <v>2021</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="66" t="s">
         <v>715</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="66" t="s">
         <v>716</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>717</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="68">
         <v>2020</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="68" t="s">
         <v>700</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1">
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="66">
         <v>2008</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="66" t="s">
         <v>720</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="68" t="s">
         <v>700</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1">
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="66">
         <v>1999</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="66" t="s">
         <v>722</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>723</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="66" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>724</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="66" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1">
+    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="66">
         <v>2014</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="66" t="s">
         <v>726</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="66" t="s">
         <v>727</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>728</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="66">
         <v>2019</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>729</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>730</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="66">
         <v>2020</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="66" t="s">
         <v>731</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="66">
         <v>2019</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="66" t="s">
         <v>733</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.75">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="62">
         <v>1985</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="66" t="s">
         <v>735</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.75">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
         <v>736</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="66">
         <v>1974</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="66" t="s">
         <v>737</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="66" t="s">
         <v>690</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.75">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="62" t="s">
         <v>739</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="61" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>742</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="66" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30.75">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>743</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="66">
         <v>2007</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="66" t="s">
         <v>744</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="66" t="s">
         <v>704</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>745</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="66" t="s">
         <v>685</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="66" t="s">
         <v>556</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="66" t="s">
         <v>746</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>747</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="68">
         <v>2007</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="68" t="s">
         <v>748</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="F31" s="61" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>751</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="68">
         <v>2008</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="68" t="s">
         <v>752</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="68" t="s">
         <v>753</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="61" t="s">
         <v>754</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="64" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>755</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="72" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="68">
         <v>2020</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="68" t="s">
         <v>757</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="61" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>760</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="66">
         <v>2018</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="68" t="s">
         <v>761</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="61" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>763</v>
       </c>
-      <c r="B36" s="70">
+      <c r="B36" s="66">
         <v>2020</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="66" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="66" t="s">
         <v>687</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>765</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>766</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>767</v>
       </c>
-      <c r="B39" s="70">
+      <c r="B39" s="66">
         <v>2019</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70" t="s">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>768</v>
       </c>
-      <c r="B40" s="70">
+      <c r="B40" s="66">
         <v>2001</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70" t="s">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66" t="s">
         <v>704</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>769</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="66">
         <v>2001</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66" t="s">
         <v>770</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>771</v>
       </c>
-      <c r="B42" s="72">
+      <c r="B42" s="68">
         <v>2021</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="68" t="s">
         <v>770</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>772</v>
       </c>
-      <c r="B43" s="72">
+      <c r="B43" s="68">
         <v>1985</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>773</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="68">
         <v>2000</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="64" t="s">
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="72" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="68" t="s">
         <v>775</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>776</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="68">
         <v>2019</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="68" t="s">
         <v>753</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>777</v>
       </c>
-      <c r="B47" s="72">
+      <c r="B47" s="68">
         <v>2022</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72" t="s">
+      <c r="C47" s="68"/>
+      <c r="D47" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>778</v>
       </c>
-      <c r="B48" s="72">
+      <c r="B48" s="68">
         <v>2000</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>779</v>
       </c>
-      <c r="B49" s="72">
+      <c r="B49" s="68">
         <v>2009</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E49" s="64"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="61"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="64"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="61"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>781</v>
       </c>
-      <c r="B51" s="70">
+      <c r="B51" s="66">
         <v>2018</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70" t="s">
+      <c r="C51" s="66"/>
+      <c r="D51" s="66" t="s">
         <v>700</v>
       </c>
-      <c r="E51" s="64"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="64" t="s">
+      <c r="E51" s="61"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="61" t="s">
         <v>782</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="72" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E52" s="64"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="61"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>783</v>
       </c>
-      <c r="B53" s="72">
+      <c r="B53" s="68">
         <v>2018</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="64"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="61"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="64"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="61"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>785</v>
       </c>
-      <c r="B55" s="72">
+      <c r="B55" s="68">
         <v>1989</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72" t="s">
+      <c r="C55" s="68"/>
+      <c r="D55" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E55" s="64"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="64"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="61"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="B57" s="72">
+      <c r="B57" s="68">
         <v>2004</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="64"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="61"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>788</v>
       </c>
-      <c r="B58" s="72">
+      <c r="B58" s="68">
         <v>2008</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="64"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="61"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>789</v>
       </c>
-      <c r="B59" s="72">
+      <c r="B59" s="68">
         <v>2006</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="64"/>
-    </row>
-    <row r="60" spans="1:5" s="60" customFormat="1">
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="61"/>
+    </row>
+    <row r="60" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
         <v>790</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="75"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="64"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>792</v>
       </c>
-      <c r="B62" s="72">
+      <c r="B62" s="68">
         <v>2012</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="64"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="61"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>793</v>
       </c>
-      <c r="B63" s="72">
+      <c r="B63" s="68">
         <v>2009</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="64"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="61"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>794</v>
       </c>
-      <c r="B64" s="72">
+      <c r="B64" s="68">
         <v>2005</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="64"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="61"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="B65" s="72">
+      <c r="B65" s="68">
         <v>2017</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="E65" s="64"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="61"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>796</v>
       </c>
-      <c r="B66" s="72">
+      <c r="B66" s="68">
         <v>2019</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="64"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="61"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="64"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="64" t="s">
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="61"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="64"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="61"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>798</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="64"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="61"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
         <v>799</v>
       </c>
-      <c r="B70" s="72">
+      <c r="B70" s="68">
         <v>2016</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72" t="s">
+      <c r="C70" s="68"/>
+      <c r="D70" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E70" s="64"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="61"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
         <v>800</v>
       </c>
-      <c r="B71" s="72">
+      <c r="B71" s="68">
         <v>2020</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="64"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="61"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
         <v>801</v>
       </c>
-      <c r="B72" s="70">
+      <c r="B72" s="66">
         <v>2015</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70" t="s">
+      <c r="C72" s="66"/>
+      <c r="D72" s="66" t="s">
         <v>704</v>
       </c>
-      <c r="E72" s="64"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="61"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="B73" s="72">
+      <c r="B73" s="68">
         <v>2022</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="64"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="61"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>803</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="64"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="61"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
         <v>804</v>
       </c>
-      <c r="B75" s="72">
+      <c r="B75" s="68">
         <v>2018</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72" t="s">
+      <c r="C75" s="68"/>
+      <c r="D75" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="E75" s="64"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="61"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
         <v>805</v>
       </c>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="64"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="61"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>806</v>
       </c>
-      <c r="B77" s="72">
+      <c r="B77" s="68">
         <v>2019</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="64"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="61"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>807</v>
       </c>
-      <c r="B78" s="72">
+      <c r="B78" s="68">
         <v>2016</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="64"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="61"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="B79" s="72">
+      <c r="B79" s="68">
         <v>2016</v>
       </c>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="64"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="61"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>809</v>
       </c>
-      <c r="B80" s="72">
+      <c r="B80" s="68">
         <v>2007</v>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="64"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="61"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="B81" s="72">
+      <c r="B81" s="68">
         <v>2003</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="64"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="61"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>811</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="64"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="61"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>812</v>
       </c>
-      <c r="B83" s="72">
+      <c r="B83" s="68">
         <v>2015</v>
       </c>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="64"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="61"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>813</v>
       </c>
-      <c r="B84" s="72">
+      <c r="B84" s="68">
         <v>2001</v>
       </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="64"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="61"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="49" t="s">
         <v>814</v>
       </c>
-      <c r="B85" s="72">
+      <c r="B85" s="68">
         <v>2020</v>
       </c>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="64"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="61"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>815</v>
       </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="64"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="61"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="s">
         <v>816</v>
       </c>
-      <c r="B87" s="72">
+      <c r="B87" s="68">
         <v>2021</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72" t="s">
+      <c r="C87" s="68"/>
+      <c r="D87" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="E87" s="64"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="61"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
         <v>817</v>
       </c>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="64"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="61"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="49" t="s">
         <v>818</v>
       </c>
-      <c r="B89" s="72">
+      <c r="B89" s="68">
         <v>2016</v>
       </c>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72" t="s">
+      <c r="C89" s="68"/>
+      <c r="D89" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="E89" s="64"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="61"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="B90" s="72">
+      <c r="B90" s="68">
         <v>2004</v>
       </c>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="64"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="61"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="B91" s="72">
+      <c r="B91" s="68">
         <v>2016</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="64"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="61"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
         <v>821</v>
       </c>
-      <c r="B92" s="72">
+      <c r="B92" s="68">
         <v>2021</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="64"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="61"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="64"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="61"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
         <v>823</v>
       </c>
-      <c r="B94" s="72">
+      <c r="B94" s="68">
         <v>1998</v>
       </c>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="64"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="C94" s="68"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="61"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="49" t="s">
         <v>824</v>
       </c>
-      <c r="B95" s="72">
+      <c r="B95" s="68">
         <v>2017</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="64"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="C95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="61"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="49" t="s">
         <v>825</v>
       </c>
-      <c r="B96" s="70">
+      <c r="B96" s="66">
         <v>2016</v>
       </c>
-      <c r="C96" s="70"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="64"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="61"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="49" t="s">
         <v>826</v>
       </c>
-      <c r="B97" s="72">
+      <c r="B97" s="68">
         <v>2017</v>
       </c>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="64"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="61"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>827</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="64"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="61"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>828</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="64"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="B99" s="62"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="61"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
         <v>829</v>
       </c>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="64"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="61"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>830</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="64"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="61"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="64"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="61"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>832</v>
       </c>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="64"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="61"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
         <v>833</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="64"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="B104" s="62"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="61"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
         <v>834</v>
       </c>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="64"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="B105" s="62"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="61"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>835</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="64"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="61"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="64"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="61"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
         <v>837</v>
       </c>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="64"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="61"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="49" t="s">
         <v>838</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="64"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="61"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="49" t="s">
         <v>839</v>
       </c>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="64"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="61"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>840</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="64"/>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="61"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="49" t="s">
         <v>841</v>
       </c>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="64"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="B112" s="62"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="61"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>842</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="64"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="61"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>843</v>
       </c>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="64"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="61"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>844</v>
       </c>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="64"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="61"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>845</v>
       </c>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="64"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="61"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>846</v>
       </c>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="64"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="61"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>847</v>
       </c>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="64"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="61"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="49" t="s">
         <v>848</v>
       </c>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="64"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="61"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="49" t="s">
         <v>849</v>
       </c>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="64"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="61"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="64"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="61"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>851</v>
       </c>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="64"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="61"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="49" t="s">
         <v>852</v>
       </c>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="64"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="B123" s="62"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="61"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="49" t="s">
         <v>853</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="64"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="61"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="64"/>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="61"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="49" t="s">
         <v>855</v>
       </c>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="64"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="B126" s="62"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="61"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>856</v>
       </c>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="64"/>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="61"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>857</v>
       </c>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="64"/>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="61"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>858</v>
       </c>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="64"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="61"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>859</v>
       </c>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="64"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="64" t="s">
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="61"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="61" t="s">
         <v>860</v>
       </c>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="65" t="s">
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="E131" s="64"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="E131" s="61"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>861</v>
       </c>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="64"/>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="61"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="49" t="s">
         <v>862</v>
       </c>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="64"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="61"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="49" t="s">
         <v>863</v>
       </c>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="64"/>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="61"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="49" t="s">
         <v>864</v>
       </c>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="64"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="61"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>865</v>
       </c>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="64"/>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="61"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="49" t="s">
         <v>866</v>
       </c>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="64"/>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="61"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="49" t="s">
         <v>867</v>
       </c>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="64"/>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="B138" s="62"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="62"/>
+      <c r="E138" s="61"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
         <v>868</v>
       </c>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="64"/>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="61"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>869</v>
       </c>
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="64"/>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="B140" s="62"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="61"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="64"/>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="61"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="49" t="s">
         <v>871</v>
       </c>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="64"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="B142" s="62"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="61"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="49" t="s">
         <v>872</v>
       </c>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="64"/>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="B143" s="62"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="61"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
         <v>873</v>
       </c>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="64"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="B144" s="62"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="61"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="49" t="s">
         <v>874</v>
       </c>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="64"/>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="49" t="s">
         <v>875</v>
       </c>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="64"/>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="B146" s="62"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="49" t="s">
         <v>876</v>
       </c>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="64"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="B147" s="62"/>
+      <c r="C147" s="62"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>877</v>
       </c>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="64"/>
-      <c r="F148" s="64"/>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="61"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
         <v>878</v>
       </c>
-      <c r="B149" s="65"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="64"/>
-      <c r="F149" s="64"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="B149" s="62"/>
+      <c r="C149" s="62"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="61"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="50" t="s">
         <v>879</v>
       </c>
-      <c r="B150" s="70">
+      <c r="B150" s="66">
         <v>1999</v>
       </c>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="64"/>
-      <c r="F150" s="64"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="64" t="s">
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="B151" s="65"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="64"/>
-      <c r="F151" s="64"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="64" t="s">
+      <c r="B151" s="62"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="62"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="61" t="s">
         <v>881</v>
       </c>
-      <c r="B152" s="65"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="64"/>
-      <c r="F152" s="64"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="64" t="s">
+      <c r="B152" s="62"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="61"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="61" t="s">
         <v>882</v>
       </c>
-      <c r="B153" s="65"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="64"/>
-      <c r="F153" s="64"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="64" t="s">
+      <c r="B153" s="62"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="62"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="61"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="61" t="s">
         <v>883</v>
       </c>
-      <c r="B154" s="64">
+      <c r="B154" s="61">
         <v>2005</v>
       </c>
-      <c r="C154" s="64" t="s">
+      <c r="C154" s="61" t="s">
         <v>884</v>
       </c>
-      <c r="D154" s="64" t="s">
+      <c r="D154" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="E154" s="64" t="s">
+      <c r="E154" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="F154" s="64" t="s">
+      <c r="F154" s="61" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="64" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="61" t="s">
         <v>885</v>
       </c>
-      <c r="B155" s="64">
+      <c r="B155" s="61">
         <v>2001</v>
       </c>
-      <c r="C155" s="64" t="s">
+      <c r="C155" s="61" t="s">
         <v>886</v>
       </c>
-      <c r="D155" s="64" t="s">
+      <c r="D155" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="E155" s="64" t="s">
+      <c r="E155" s="61" t="s">
         <v>887</v>
       </c>
-      <c r="F155" s="64" t="s">
+      <c r="F155" s="61" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="64" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="B156" s="64">
+      <c r="B156" s="61">
         <v>2005</v>
       </c>
-      <c r="C156" s="64" t="s">
+      <c r="C156" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="D156" s="64" t="s">
+      <c r="D156" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="E156" s="64" t="s">
+      <c r="E156" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="F156" s="64" t="s">
+      <c r="F156" s="61" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="64" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="B157" s="64">
+      <c r="B157" s="61">
         <v>2019</v>
       </c>
-      <c r="C157" s="64" t="s">
+      <c r="C157" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="D157" s="64" t="s">
+      <c r="D157" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="E157" s="64" t="s">
+      <c r="E157" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F157" s="64" t="s">
+      <c r="F157" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="64" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="61" t="s">
         <v>894</v>
       </c>
-      <c r="B158" s="64">
+      <c r="B158" s="61">
         <v>2019</v>
       </c>
-      <c r="C158" s="64" t="s">
+      <c r="C158" s="61" t="s">
         <v>895</v>
       </c>
-      <c r="D158" s="64" t="s">
+      <c r="D158" s="61" t="s">
         <v>746</v>
       </c>
-      <c r="E158" s="64" t="s">
+      <c r="E158" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F158" s="64" t="s">
+      <c r="F158" s="61" t="s">
         <v>31</v>
       </c>
     </row>
@@ -18882,7 +18867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18894,7 +18879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18908,14 +18893,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5">
         <v>1</v>
       </c>
@@ -18935,13 +18920,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>896</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>897</v>
       </c>
@@ -18949,7 +18934,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>899</v>
       </c>
@@ -18957,7 +18942,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>901</v>
       </c>
@@ -18965,7 +18950,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60.75">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>903</v>
       </c>
@@ -18985,7 +18970,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>909</v>
       </c>
@@ -18993,13 +18978,13 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>911</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>912</v>
       </c>
@@ -19019,7 +19004,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>918</v>
       </c>
@@ -19027,76 +19012,76 @@
         <v>919</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="30.75">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>920</v>
       </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>921</v>
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>922</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>923</v>
       </c>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:24" ht="30.75">
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>924</v>
       </c>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>925</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:24" ht="45.75">
+    <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>926</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:24" ht="76.5">
+    <row r="20" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>927</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="30.75">
+    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>928</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>929</v>
       </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>930</v>
       </c>
       <c r="B23" s="7"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -19132,17 +19117,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="63" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:6" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>932</v>
       </c>
@@ -19153,7 +19138,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>935</v>
       </c>
@@ -19161,7 +19146,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>937</v>
       </c>
@@ -19175,7 +19160,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>940</v>
       </c>
@@ -19189,7 +19174,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>943</v>
       </c>
@@ -19203,7 +19188,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>944</v>
       </c>
@@ -19217,7 +19202,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>946</v>
       </c>
@@ -19238,24 +19223,24 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>928</v>
       </c>
